--- a/test report 2 (improved file).xlsx
+++ b/test report 2 (improved file).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\SSW 567\HW02\SSW567-HW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D54BCFF-C5FA-4B8B-BEF0-8048A7AD666D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52355601-515C-4C53-8032-7869715B22F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>test6</t>
   </si>
   <si>
-    <t>1,1,9</t>
-  </si>
-  <si>
     <t>test5</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>9,1,1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -508,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -525,7 +525,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -542,7 +542,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -550,7 +550,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -559,32 +559,32 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -593,15 +593,15 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -610,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
